--- a/data/fabian/output/processed_f.xlsx
+++ b/data/fabian/output/processed_f.xlsx
@@ -536,7 +536,7 @@
         <v>50.21</v>
       </c>
       <c r="E2" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="F2" t="n">
         <v>-55.96</v>
@@ -548,7 +548,7 @@
         <v>50.21</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="J2" t="n">
         <v>-41</v>
@@ -560,7 +560,7 @@
         <v>50.21</v>
       </c>
       <c r="M2" t="n">
-        <v>1.22</v>
+        <v>0.82</v>
       </c>
       <c r="N2" t="n">
         <v>43392.34</v>
@@ -591,7 +591,7 @@
         <v>50.21</v>
       </c>
       <c r="E3" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="F3" t="n">
         <v>-60.71</v>
@@ -603,7 +603,7 @@
         <v>50.21</v>
       </c>
       <c r="I3" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="J3" t="n">
         <v>-46.25</v>
@@ -615,7 +615,7 @@
         <v>50.21</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>0.72</v>
       </c>
       <c r="N3" t="n">
         <v>43392.34</v>
@@ -646,7 +646,7 @@
         <v>50.21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="F4" t="n">
         <v>-60.88</v>
@@ -658,7 +658,7 @@
         <v>50.21</v>
       </c>
       <c r="I4" t="n">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="J4" t="n">
         <v>-46.1</v>
@@ -670,7 +670,7 @@
         <v>50.21</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>0.73</v>
       </c>
       <c r="N4" t="n">
         <v>43392.34</v>
@@ -701,7 +701,7 @@
         <v>50.21</v>
       </c>
       <c r="E5" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="F5" t="n">
         <v>-60.72</v>
@@ -713,7 +713,7 @@
         <v>50.21</v>
       </c>
       <c r="I5" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="J5" t="n">
         <v>-45.83</v>
@@ -725,7 +725,7 @@
         <v>50.21</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>0.73</v>
       </c>
       <c r="N5" t="n">
         <v>43392.34</v>
@@ -756,7 +756,7 @@
         <v>50.21</v>
       </c>
       <c r="E6" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="F6" t="n">
         <v>-60.59</v>
@@ -768,7 +768,7 @@
         <v>50.21</v>
       </c>
       <c r="I6" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="J6" t="n">
         <v>-45.72</v>
@@ -780,7 +780,7 @@
         <v>50.21</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>0.73</v>
       </c>
       <c r="N6" t="n">
         <v>43392.34</v>
@@ -811,7 +811,7 @@
         <v>50.21</v>
       </c>
       <c r="E7" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="F7" t="n">
         <v>-60.72</v>
@@ -823,7 +823,7 @@
         <v>50.21</v>
       </c>
       <c r="I7" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="J7" t="n">
         <v>-45.83</v>
@@ -835,7 +835,7 @@
         <v>50.21</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>0.73</v>
       </c>
       <c r="N7" t="n">
         <v>43392.34</v>
@@ -866,7 +866,7 @@
         <v>50.21</v>
       </c>
       <c r="E8" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="F8" t="n">
         <v>-60.88</v>
@@ -878,7 +878,7 @@
         <v>50.21</v>
       </c>
       <c r="I8" t="n">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="J8" t="n">
         <v>-46.1</v>
@@ -890,7 +890,7 @@
         <v>50.21</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>0.73</v>
       </c>
       <c r="N8" t="n">
         <v>43392.34</v>
@@ -921,7 +921,7 @@
         <v>50.21</v>
       </c>
       <c r="E9" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="F9" t="n">
         <v>-60.71</v>
@@ -933,7 +933,7 @@
         <v>50.21</v>
       </c>
       <c r="I9" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="J9" t="n">
         <v>-46.25</v>
@@ -945,7 +945,7 @@
         <v>50.21</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>0.72</v>
       </c>
       <c r="N9" t="n">
         <v>43392.34</v>
@@ -976,7 +976,7 @@
         <v>50.21</v>
       </c>
       <c r="E10" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="F10" t="n">
         <v>-55.96</v>
@@ -988,7 +988,7 @@
         <v>50.21</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="J10" t="n">
         <v>-41</v>
@@ -1000,7 +1000,7 @@
         <v>50.21</v>
       </c>
       <c r="M10" t="n">
-        <v>1.22</v>
+        <v>0.82</v>
       </c>
       <c r="N10" t="n">
         <v>43392.34</v>

--- a/data/fabian/output/processed_f.xlsx
+++ b/data/fabian/output/processed_f.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/fabian/output/processed_f.xlsx
+++ b/data/fabian/output/processed_f.xlsx
@@ -527,52 +527,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-82.01000000000001</v>
+        <v>-82.008</v>
       </c>
       <c r="C2" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="D2" t="n">
         <v>50.21</v>
       </c>
       <c r="E2" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="F2" t="n">
-        <v>-55.96</v>
+        <v>-84.502</v>
       </c>
       <c r="G2" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="H2" t="n">
         <v>50.21</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6</v>
+        <v>0.396</v>
       </c>
       <c r="J2" t="n">
-        <v>-41</v>
+        <v>-27.155</v>
       </c>
       <c r="K2" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="L2" t="n">
         <v>50.21</v>
       </c>
       <c r="M2" t="n">
-        <v>0.82</v>
+        <v>1.233</v>
       </c>
       <c r="N2" t="n">
         <v>43392.34</v>
       </c>
       <c r="O2" t="n">
-        <v>113.4</v>
+        <v>113.399</v>
       </c>
       <c r="P2" t="n">
-        <v>51.34</v>
+        <v>51.336</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.61</v>
+        <v>6.614</v>
       </c>
     </row>
     <row r="3">
@@ -582,52 +582,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-92.48999999999999</v>
+        <v>-92.49299999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="D3" t="n">
         <v>50.21</v>
       </c>
       <c r="E3" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="F3" t="n">
-        <v>-60.71</v>
+        <v>-91.664</v>
       </c>
       <c r="G3" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="H3" t="n">
         <v>50.21</v>
       </c>
       <c r="I3" t="n">
-        <v>0.55</v>
+        <v>0.365</v>
       </c>
       <c r="J3" t="n">
-        <v>-46.25</v>
+        <v>-30.627</v>
       </c>
       <c r="K3" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="L3" t="n">
         <v>50.21</v>
       </c>
       <c r="M3" t="n">
-        <v>0.72</v>
+        <v>1.093</v>
       </c>
       <c r="N3" t="n">
         <v>43392.34</v>
       </c>
       <c r="O3" t="n">
-        <v>113.4</v>
+        <v>113.399</v>
       </c>
       <c r="P3" t="n">
-        <v>51.34</v>
+        <v>51.336</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.61</v>
+        <v>6.614</v>
       </c>
     </row>
     <row r="4">
@@ -637,52 +637,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-92.2</v>
+        <v>-92.205</v>
       </c>
       <c r="C4" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="D4" t="n">
         <v>50.21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="F4" t="n">
-        <v>-60.88</v>
+        <v>-91.93300000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="H4" t="n">
         <v>50.21</v>
       </c>
       <c r="I4" t="n">
-        <v>0.55</v>
+        <v>0.364</v>
       </c>
       <c r="J4" t="n">
-        <v>-46.1</v>
+        <v>-30.531</v>
       </c>
       <c r="K4" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="L4" t="n">
         <v>50.21</v>
       </c>
       <c r="M4" t="n">
-        <v>0.73</v>
+        <v>1.096</v>
       </c>
       <c r="N4" t="n">
         <v>43392.34</v>
       </c>
       <c r="O4" t="n">
-        <v>113.4</v>
+        <v>113.399</v>
       </c>
       <c r="P4" t="n">
-        <v>51.34</v>
+        <v>51.336</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.61</v>
+        <v>6.614</v>
       </c>
     </row>
     <row r="5">
@@ -692,52 +692,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-91.66</v>
+        <v>-91.66200000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="D5" t="n">
         <v>50.21</v>
       </c>
       <c r="E5" t="n">
-        <v>0.37</v>
+        <v>0.365</v>
       </c>
       <c r="F5" t="n">
-        <v>-60.72</v>
+        <v>-91.681</v>
       </c>
       <c r="G5" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="H5" t="n">
         <v>50.21</v>
       </c>
       <c r="I5" t="n">
-        <v>0.55</v>
+        <v>0.365</v>
       </c>
       <c r="J5" t="n">
-        <v>-45.83</v>
+        <v>-30.352</v>
       </c>
       <c r="K5" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="L5" t="n">
         <v>50.21</v>
       </c>
       <c r="M5" t="n">
-        <v>0.73</v>
+        <v>1.103</v>
       </c>
       <c r="N5" t="n">
         <v>43392.34</v>
       </c>
       <c r="O5" t="n">
-        <v>113.4</v>
+        <v>113.399</v>
       </c>
       <c r="P5" t="n">
-        <v>51.34</v>
+        <v>51.336</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.61</v>
+        <v>6.614</v>
       </c>
     </row>
     <row r="6">
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91.43000000000001</v>
+        <v>-91.43300000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="D6" t="n">
         <v>50.21</v>
       </c>
       <c r="E6" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="F6" t="n">
-        <v>-60.59</v>
+        <v>-91.49299999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="H6" t="n">
         <v>50.21</v>
       </c>
       <c r="I6" t="n">
-        <v>0.55</v>
+        <v>0.366</v>
       </c>
       <c r="J6" t="n">
-        <v>-45.72</v>
+        <v>-30.276</v>
       </c>
       <c r="K6" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="L6" t="n">
         <v>50.21</v>
       </c>
       <c r="M6" t="n">
-        <v>0.73</v>
+        <v>1.106</v>
       </c>
       <c r="N6" t="n">
         <v>43392.34</v>
       </c>
       <c r="O6" t="n">
-        <v>113.4</v>
+        <v>113.399</v>
       </c>
       <c r="P6" t="n">
-        <v>51.34</v>
+        <v>51.336</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.61</v>
+        <v>6.614</v>
       </c>
     </row>
     <row r="7">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-91.66</v>
+        <v>-91.66200000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="D7" t="n">
         <v>50.21</v>
       </c>
       <c r="E7" t="n">
-        <v>0.37</v>
+        <v>0.365</v>
       </c>
       <c r="F7" t="n">
-        <v>-60.72</v>
+        <v>-91.681</v>
       </c>
       <c r="G7" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="H7" t="n">
         <v>50.21</v>
       </c>
       <c r="I7" t="n">
-        <v>0.55</v>
+        <v>0.365</v>
       </c>
       <c r="J7" t="n">
-        <v>-45.83</v>
+        <v>-30.352</v>
       </c>
       <c r="K7" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="L7" t="n">
         <v>50.21</v>
       </c>
       <c r="M7" t="n">
-        <v>0.73</v>
+        <v>1.103</v>
       </c>
       <c r="N7" t="n">
         <v>43392.34</v>
       </c>
       <c r="O7" t="n">
-        <v>113.4</v>
+        <v>113.399</v>
       </c>
       <c r="P7" t="n">
-        <v>51.34</v>
+        <v>51.336</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.61</v>
+        <v>6.614</v>
       </c>
     </row>
     <row r="8">
@@ -857,52 +857,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-92.2</v>
+        <v>-92.205</v>
       </c>
       <c r="C8" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="D8" t="n">
         <v>50.21</v>
       </c>
       <c r="E8" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="F8" t="n">
-        <v>-60.88</v>
+        <v>-91.93300000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="H8" t="n">
         <v>50.21</v>
       </c>
       <c r="I8" t="n">
-        <v>0.55</v>
+        <v>0.364</v>
       </c>
       <c r="J8" t="n">
-        <v>-46.1</v>
+        <v>-30.531</v>
       </c>
       <c r="K8" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="L8" t="n">
         <v>50.21</v>
       </c>
       <c r="M8" t="n">
-        <v>0.73</v>
+        <v>1.096</v>
       </c>
       <c r="N8" t="n">
         <v>43392.34</v>
       </c>
       <c r="O8" t="n">
-        <v>113.4</v>
+        <v>113.399</v>
       </c>
       <c r="P8" t="n">
-        <v>51.34</v>
+        <v>51.336</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.61</v>
+        <v>6.614</v>
       </c>
     </row>
     <row r="9">
@@ -912,52 +912,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-92.48999999999999</v>
+        <v>-92.49299999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="D9" t="n">
         <v>50.21</v>
       </c>
       <c r="E9" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="F9" t="n">
-        <v>-60.71</v>
+        <v>-91.664</v>
       </c>
       <c r="G9" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="H9" t="n">
         <v>50.21</v>
       </c>
       <c r="I9" t="n">
-        <v>0.55</v>
+        <v>0.365</v>
       </c>
       <c r="J9" t="n">
-        <v>-46.25</v>
+        <v>-30.627</v>
       </c>
       <c r="K9" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="L9" t="n">
         <v>50.21</v>
       </c>
       <c r="M9" t="n">
-        <v>0.72</v>
+        <v>1.093</v>
       </c>
       <c r="N9" t="n">
         <v>43392.34</v>
       </c>
       <c r="O9" t="n">
-        <v>113.4</v>
+        <v>113.399</v>
       </c>
       <c r="P9" t="n">
-        <v>51.34</v>
+        <v>51.336</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.61</v>
+        <v>6.614</v>
       </c>
     </row>
     <row r="10">
@@ -967,52 +967,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-82.01000000000001</v>
+        <v>-82.008</v>
       </c>
       <c r="C10" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="D10" t="n">
         <v>50.21</v>
       </c>
       <c r="E10" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="F10" t="n">
-        <v>-55.96</v>
+        <v>-84.502</v>
       </c>
       <c r="G10" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="H10" t="n">
         <v>50.21</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6</v>
+        <v>0.396</v>
       </c>
       <c r="J10" t="n">
-        <v>-41</v>
+        <v>-27.155</v>
       </c>
       <c r="K10" t="n">
-        <v>529.05</v>
+        <v>529.051</v>
       </c>
       <c r="L10" t="n">
         <v>50.21</v>
       </c>
       <c r="M10" t="n">
-        <v>0.82</v>
+        <v>1.233</v>
       </c>
       <c r="N10" t="n">
         <v>43392.34</v>
       </c>
       <c r="O10" t="n">
-        <v>113.4</v>
+        <v>113.399</v>
       </c>
       <c r="P10" t="n">
-        <v>51.34</v>
+        <v>51.336</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.61</v>
+        <v>6.614</v>
       </c>
     </row>
   </sheetData>
